--- a/AppAreaServer/AppAreaServer/tooldir/parseExcelTool/Excel/初始化表_3_Init.xlsx
+++ b/AppAreaServer/AppAreaServer/tooldir/parseExcelTool/Excel/初始化表_3_Init.xlsx
@@ -124,7 +124,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,6 +135,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -446,20 +456,20 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -467,7 +477,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -475,7 +485,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -483,7 +493,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -491,7 +501,7 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -499,97 +509,95 @@
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
